--- a/biology/Virologie/Picornavirales/Picornavirales.xlsx
+++ b/biology/Virologie/Picornavirales/Picornavirales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Picornavirales sont un ordre de virus dont les hôtes sont des vertébrés, des insectes ou des plantes [2]. Ce groupe est constitué de virus qui ont un génome formé d'ARN simple brin à polarité positive (ssRNA).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Picornavirales sont un ordre de virus dont les hôtes sont des vertébrés, des insectes ou des plantes . Ce groupe est constitué de virus qui ont un génome formé d'ARN simple brin à polarité positive (ssRNA).
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (6 juin 2014)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (6 juin 2014) :
 famille des Dicistroviridae
 famille des Iflaviridae
 famille des Marnaviridae
@@ -546,9 +560,11 @@
           <t>Liste des familles, sous-familles, genres, espèces et non-classés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (6 juin 2014)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (6 juin 2014) :
 famille des Dicistroviridae
 genre Aparavirus
 Acute bee paralysis virus
@@ -1155,7 +1171,7 @@
 non-classé Human poliovirus 3
 non-classé Human poliovirus 3 strain Sabin
 non-classé Poliovirus type 3 (strain 23127)
-non-classé Poliovirus type 3 (strains P3/LEON/37 AND P3/LEON 12A[1]B)
+non-classé Poliovirus type 3 (strains P3/LEON/37 AND P3/LEON 12AB)
 non-classé recombinant polioviruses
 non-classé Human poliovirus 30/ROU/2008
 non-classé Human poliovirus 40/ROU/2008
@@ -1393,7 +1409,7 @@
 Aichivirus C
 non-classé Porcine kobuvirus
 non-classé Kobuvirus pig/Ch-kobu/2008/CHN
-non-classé Kobuvirus pig/Ch1/2</t>
+non-classé Kobuvirus pig/Ch1/2008/CH</t>
         </is>
       </c>
     </row>
